--- a/common/template/document/tabel_teachers.xlsx
+++ b/common/template/document/tabel_teachers.xlsx
@@ -908,6 +908,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,27 +960,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,15 +968,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:AW604"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1353,20 +1353,20 @@
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="5" max="19" width="3.5703125" customWidth="1"/>
     <col min="20" max="20" width="6.140625" customWidth="1"/>
-    <col min="21" max="36" width="3.7109375" customWidth="1"/>
+    <col min="21" max="36" width="3.5703125" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="AG1" s="48" t="s">
+      <c r="AG1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1376,22 +1376,22 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1429,22 +1429,22 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1509,11 +1509,11 @@
       <c r="AE4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="49" t="s">
+      <c r="AI4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="51"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="61"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -1534,27 +1534,27 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1565,11 +1565,11 @@
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="62" t="s">
+      <c r="AI5" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="64"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="67"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
@@ -1584,38 +1584,38 @@
       <c r="AW5" s="2"/>
     </row>
     <row r="6" spans="1:49" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AF6" s="1" t="s">
@@ -1644,33 +1644,33 @@
         <v>25</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1694,38 +1694,38 @@
       <c r="AW7" s="2"/>
     </row>
     <row r="8" spans="1:49" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="61">
+      <c r="D8" s="57">
         <v>0</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
       <c r="AC8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="11" spans="1:49" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="19"/>
       <c r="E11" s="32"/>
       <c r="F11" s="23"/>
@@ -1910,10 +1910,10 @@
       <c r="A12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="4"/>
@@ -1968,8 +1968,8 @@
       <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2020,8 +2020,8 @@
     </row>
     <row r="14" spans="1:49" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2136,8 @@
     </row>
     <row r="15" spans="1:49" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -2190,8 +2190,8 @@
     </row>
     <row r="16" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2242,8 +2242,8 @@
     </row>
     <row r="17" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -13817,6 +13817,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="AI5:AK5"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D7:AB7"/>
@@ -13825,12 +13831,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D8:AB8"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="H2:U2"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="AI5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/common/template/document/tabel_teachers.xlsx
+++ b/common/template/document/tabel_teachers.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD833BCE-FCE2-2040-8BDE-9E9B991AE52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>явок</t>
   </si>
@@ -37,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">  по  ОКПО</t>
-  </si>
-  <si>
-    <t>Исполнитель   ________________     _______________    _________________________</t>
   </si>
   <si>
     <t xml:space="preserve">                        (должность)                  (подпись)                (расшифровка подписи)</t>
@@ -146,9 +144,6 @@
   </si>
   <si>
     <t>[doc.doc_data_mark]  г.</t>
-  </si>
-  <si>
-    <t>форма</t>
   </si>
   <si>
     <t>[a.stake_slug]</t>
@@ -369,12 +364,42 @@
   <si>
     <t>[a.days.time_total]</t>
   </si>
+  <si>
+    <t>52603682</t>
+  </si>
+  <si>
+    <t>[doc.summ_qty_15]</t>
+  </si>
+  <si>
+    <t>[doc.summ_qty_31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исполнитель </t>
+  </si>
+  <si>
+    <t>_________</t>
+  </si>
+  <si>
+    <t>[doc.doc_accountant_post]</t>
+  </si>
+  <si>
+    <t>[doc.doc_accountant_iof]</t>
+  </si>
+  <si>
+    <t>[doc.summ_time_15]</t>
+  </si>
+  <si>
+    <t>[doc.summ_time_31]</t>
+  </si>
+  <si>
+    <t>[a.days.time_total_15]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -424,6 +449,18 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
@@ -816,19 +853,16 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,13 +878,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,8 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
@@ -903,11 +936,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,6 +998,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1130,6 +1170,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1165,6 +1222,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1340,562 +1414,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW604"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="19" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" customWidth="1"/>
-    <col min="21" max="36" width="3.5703125" customWidth="1"/>
+    <col min="5" max="19" width="3.5" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+    <col min="21" max="36" width="3.5" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="AG1" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-    </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="63" t="s">
+    <row r="1" spans="1:46">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+    </row>
+    <row r="2" spans="1:46" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="H2" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="1:46" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="H3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="AI3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="30"/>
+    </row>
+    <row r="4" spans="1:46" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AE4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="57"/>
+    </row>
+    <row r="5" spans="1:46" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="G5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-    </row>
-    <row r="3" spans="1:49" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AI3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-    </row>
-    <row r="4" spans="1:49" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-    </row>
-    <row r="5" spans="1:49" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="52" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="AF5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="63"/>
+    </row>
+    <row r="6" spans="1:46" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="D6" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AF5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-    </row>
-    <row r="6" spans="1:49" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
       <c r="AF6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-    </row>
-    <row r="7" spans="1:49" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK6" s="9"/>
+    </row>
+    <row r="7" spans="1:46" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="16"/>
+    </row>
+    <row r="8" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="D8" s="53">
+        <v>0</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-    </row>
-    <row r="8" spans="1:49" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="57">
-        <v>0</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="2" t="s">
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="16"/>
+    </row>
+    <row r="9" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="G9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-    </row>
-    <row r="9" spans="1:49" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-    </row>
-    <row r="10" spans="1:49" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-    </row>
-    <row r="11" spans="1:49" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="43" t="s">
+      <c r="AE9" s="17"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="12"/>
+    </row>
+    <row r="10" spans="1:46" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+    </row>
+    <row r="11" spans="1:46" ht="19.5" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="25"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="24"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
@@ -1906,53 +1741,53 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12" spans="1:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:46" ht="10.5" customHeight="1">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="4" t="s">
-        <v>14</v>
+      <c r="B12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -1964,49 +1799,49 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:46" ht="9.75" customHeight="1">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="21" t="s">
-        <v>12</v>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
@@ -2018,111 +1853,111 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14" spans="1:49" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="1:46" ht="9.75" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>7</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>8</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>9</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>10</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>11</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>12</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>13</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>14</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>15</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="4">
+      <c r="T14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="3">
         <v>16</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>17</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>18</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>19</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>20</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>21</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="3">
         <v>22</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB14" s="3">
         <v>23</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="3">
         <v>24</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="3">
         <v>25</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AE14" s="3">
         <v>26</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AF14" s="3">
         <v>27</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="3">
         <v>28</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH14" s="3">
         <v>29</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AI14" s="3">
         <v>30</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AJ14" s="3">
         <v>31</v>
       </c>
-      <c r="AK14" s="21" t="s">
-        <v>15</v>
+      <c r="AK14" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -2134,48 +1969,48 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:49" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4" t="s">
+    <row r="15" spans="1:46" ht="7.5" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="21" t="s">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="20" t="s">
         <v>0</v>
       </c>
       <c r="AL15" s="1"/>
@@ -2188,47 +2023,47 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="21" t="s">
-        <v>16</v>
+    <row r="16" spans="1:46" ht="9" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2240,47 +2075,47 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17" spans="1:46" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4" t="s">
-        <v>13</v>
+    <row r="17" spans="1:46" ht="9.75" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2292,116 +2127,116 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1">
+      <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>3</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>4</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>5</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>6</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>7</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="24">
         <v>8</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <v>9</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <v>10</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>11</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="24">
         <v>12</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <v>13</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="24">
         <v>14</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="24">
         <v>15</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="24">
         <v>16</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="24">
         <v>17</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="24">
         <v>18</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="24">
         <v>19</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="24">
         <v>20</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="24">
         <v>21</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="24">
         <v>22</v>
       </c>
-      <c r="W18" s="25">
+      <c r="W18" s="24">
         <v>23</v>
       </c>
-      <c r="X18" s="25">
+      <c r="X18" s="24">
         <v>24</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Y18" s="24">
         <v>25</v>
       </c>
-      <c r="Z18" s="25">
+      <c r="Z18" s="24">
         <v>26</v>
       </c>
-      <c r="AA18" s="25">
+      <c r="AA18" s="24">
         <v>27</v>
       </c>
-      <c r="AB18" s="25">
+      <c r="AB18" s="24">
         <v>28</v>
       </c>
-      <c r="AC18" s="25">
+      <c r="AC18" s="24">
         <v>29</v>
       </c>
-      <c r="AD18" s="25">
+      <c r="AD18" s="24">
         <v>30</v>
       </c>
-      <c r="AE18" s="25">
+      <c r="AE18" s="24">
         <v>31</v>
       </c>
-      <c r="AF18" s="25">
+      <c r="AF18" s="24">
         <v>32</v>
       </c>
-      <c r="AG18" s="25">
+      <c r="AG18" s="24">
         <v>33</v>
       </c>
-      <c r="AH18" s="25">
+      <c r="AH18" s="24">
         <v>34</v>
       </c>
-      <c r="AI18" s="25">
+      <c r="AI18" s="24">
         <v>35</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AJ18" s="24">
         <v>36</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18" s="24">
         <v>37</v>
       </c>
       <c r="AL18" s="1"/>
@@ -2414,560 +2249,383 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="46" t="s">
+    <row r="19" spans="1:46" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="46" t="s">
+      <c r="E19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="V19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="X19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y19" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE19" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI19" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK19" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19" s="26" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="W20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="X20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG20" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ20" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="U19" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="V19" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="W19" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="X19" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y19" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z19" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA19" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB19" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD19" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE19" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG19" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI19" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ19" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK19" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="V20" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z20" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB20" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD20" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF20" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG20" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH20" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI20" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ20" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK20" s="26" t="s">
+    </row>
+    <row r="21" spans="1:46" s="67" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="T21" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="35"/>
-    </row>
-    <row r="23" spans="1:46" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="E23" s="28" t="s">
+      <c r="AK21" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" s="67" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="T22" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK22" s="70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="15" customHeight="1" thickBot="1"/>
+    <row r="24" spans="1:46" ht="15" customHeight="1">
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="34"/>
+    </row>
+    <row r="25" spans="1:46" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="Q25" s="35"/>
+      <c r="T25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK25" s="37"/>
+    </row>
+    <row r="26" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
+      <c r="E26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="AK26" s="37"/>
+    </row>
+    <row r="27" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="E27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="39"/>
-    </row>
-    <row r="24" spans="1:46" s="27" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="39"/>
-    </row>
-    <row r="25" spans="1:46" s="27" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="U27" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y27" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC27" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK27" s="37"/>
+    </row>
+    <row r="28" spans="1:46" s="26" customFormat="1" ht="12.75" customHeight="1">
+      <c r="E28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="35"/>
+      <c r="S28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK28" s="37"/>
+    </row>
+    <row r="29" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
+      <c r="Q29" s="35"/>
+      <c r="AK29" s="37"/>
+    </row>
+    <row r="30" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
+      <c r="Q30" s="35"/>
+      <c r="R30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK30" s="37"/>
+    </row>
+    <row r="31" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="E25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="39"/>
-    </row>
-    <row r="26" spans="1:46" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="39"/>
-    </row>
-    <row r="27" spans="1:46" s="27" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q27" s="36"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="39"/>
-    </row>
-    <row r="28" spans="1:46" s="27" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="39"/>
-    </row>
-    <row r="29" spans="1:46" s="27" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="42"/>
-    </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
-      <c r="D377" s="1"/>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
-      <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
-      <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="1"/>
-      <c r="M377" s="1"/>
-      <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
-      <c r="P377" s="1"/>
-      <c r="Q377" s="1"/>
-      <c r="R377" s="1"/>
-      <c r="S377" s="1"/>
-      <c r="T377" s="1"/>
-      <c r="U377" s="1"/>
-      <c r="V377" s="1"/>
-      <c r="W377" s="1"/>
-      <c r="X377" s="1"/>
-      <c r="Y377" s="1"/>
-      <c r="Z377" s="1"/>
-      <c r="AA377" s="1"/>
-      <c r="AB377" s="1"/>
-      <c r="AC377" s="1"/>
-      <c r="AD377" s="1"/>
-      <c r="AE377" s="1"/>
-      <c r="AF377" s="1"/>
-      <c r="AG377" s="1"/>
-      <c r="AH377" s="1"/>
-      <c r="AI377" s="1"/>
-      <c r="AJ377" s="1"/>
-      <c r="AK377" s="1"/>
-      <c r="AL377" s="1"/>
-      <c r="AM377" s="1"/>
-      <c r="AN377" s="1"/>
-      <c r="AO377" s="1"/>
-      <c r="AP377" s="1"/>
-      <c r="AQ377" s="1"/>
-      <c r="AR377" s="1"/>
-      <c r="AS377" s="1"/>
-      <c r="AT377" s="1"/>
-    </row>
-    <row r="378" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
-      <c r="D378" s="1"/>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1"/>
-      <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-      <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1"/>
-      <c r="M378" s="1"/>
-      <c r="N378" s="1"/>
-      <c r="O378" s="1"/>
-      <c r="P378" s="1"/>
-      <c r="Q378" s="1"/>
-      <c r="R378" s="1"/>
-      <c r="S378" s="1"/>
-      <c r="T378" s="1"/>
-      <c r="U378" s="1"/>
-      <c r="V378" s="1"/>
-      <c r="W378" s="1"/>
-      <c r="X378" s="1"/>
-      <c r="Y378" s="1"/>
-      <c r="Z378" s="1"/>
-      <c r="AA378" s="1"/>
-      <c r="AB378" s="1"/>
-      <c r="AC378" s="1"/>
-      <c r="AD378" s="1"/>
-      <c r="AE378" s="1"/>
-      <c r="AF378" s="1"/>
-      <c r="AG378" s="1"/>
-      <c r="AH378" s="1"/>
-      <c r="AI378" s="1"/>
-      <c r="AJ378" s="1"/>
-      <c r="AK378" s="1"/>
-      <c r="AL378" s="1"/>
-      <c r="AM378" s="1"/>
-      <c r="AN378" s="1"/>
-      <c r="AO378" s="1"/>
-      <c r="AP378" s="1"/>
-      <c r="AQ378" s="1"/>
-      <c r="AR378" s="1"/>
-      <c r="AS378" s="1"/>
-      <c r="AT378" s="1"/>
-    </row>
-    <row r="379" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="40"/>
+    </row>
+    <row r="32" spans="1:46" ht="14.25" customHeight="1"/>
+    <row r="379" spans="1:46">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -3015,7 +2673,7 @@
       <c r="AS379" s="1"/>
       <c r="AT379" s="1"/>
     </row>
-    <row r="380" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:46">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -3063,7 +2721,7 @@
       <c r="AS380" s="1"/>
       <c r="AT380" s="1"/>
     </row>
-    <row r="381" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:46">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -3111,7 +2769,7 @@
       <c r="AS381" s="1"/>
       <c r="AT381" s="1"/>
     </row>
-    <row r="382" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:46">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -3159,7 +2817,7 @@
       <c r="AS382" s="1"/>
       <c r="AT382" s="1"/>
     </row>
-    <row r="383" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:46">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -3207,7 +2865,7 @@
       <c r="AS383" s="1"/>
       <c r="AT383" s="1"/>
     </row>
-    <row r="384" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:46">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -3255,7 +2913,7 @@
       <c r="AS384" s="1"/>
       <c r="AT384" s="1"/>
     </row>
-    <row r="385" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:46">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -3303,7 +2961,7 @@
       <c r="AS385" s="1"/>
       <c r="AT385" s="1"/>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:46">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -3351,7 +3009,7 @@
       <c r="AS386" s="1"/>
       <c r="AT386" s="1"/>
     </row>
-    <row r="387" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:46">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -3399,7 +3057,7 @@
       <c r="AS387" s="1"/>
       <c r="AT387" s="1"/>
     </row>
-    <row r="388" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:46">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -3447,7 +3105,7 @@
       <c r="AS388" s="1"/>
       <c r="AT388" s="1"/>
     </row>
-    <row r="389" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:46">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -3495,7 +3153,7 @@
       <c r="AS389" s="1"/>
       <c r="AT389" s="1"/>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:46">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -3543,7 +3201,7 @@
       <c r="AS390" s="1"/>
       <c r="AT390" s="1"/>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:46">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -3591,7 +3249,7 @@
       <c r="AS391" s="1"/>
       <c r="AT391" s="1"/>
     </row>
-    <row r="392" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:46">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -3639,7 +3297,7 @@
       <c r="AS392" s="1"/>
       <c r="AT392" s="1"/>
     </row>
-    <row r="393" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:46">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -3687,7 +3345,7 @@
       <c r="AS393" s="1"/>
       <c r="AT393" s="1"/>
     </row>
-    <row r="394" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:46">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -3735,7 +3393,7 @@
       <c r="AS394" s="1"/>
       <c r="AT394" s="1"/>
     </row>
-    <row r="395" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:46">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -3783,7 +3441,7 @@
       <c r="AS395" s="1"/>
       <c r="AT395" s="1"/>
     </row>
-    <row r="396" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:46">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -3831,7 +3489,7 @@
       <c r="AS396" s="1"/>
       <c r="AT396" s="1"/>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:46">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -3879,7 +3537,7 @@
       <c r="AS397" s="1"/>
       <c r="AT397" s="1"/>
     </row>
-    <row r="398" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:46">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -3927,7 +3585,7 @@
       <c r="AS398" s="1"/>
       <c r="AT398" s="1"/>
     </row>
-    <row r="399" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:46">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -3975,7 +3633,7 @@
       <c r="AS399" s="1"/>
       <c r="AT399" s="1"/>
     </row>
-    <row r="400" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:46">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -4023,7 +3681,7 @@
       <c r="AS400" s="1"/>
       <c r="AT400" s="1"/>
     </row>
-    <row r="401" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:46">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -4071,7 +3729,7 @@
       <c r="AS401" s="1"/>
       <c r="AT401" s="1"/>
     </row>
-    <row r="402" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:46">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -4119,7 +3777,7 @@
       <c r="AS402" s="1"/>
       <c r="AT402" s="1"/>
     </row>
-    <row r="403" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:46">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -4167,7 +3825,7 @@
       <c r="AS403" s="1"/>
       <c r="AT403" s="1"/>
     </row>
-    <row r="404" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:46">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -4215,7 +3873,7 @@
       <c r="AS404" s="1"/>
       <c r="AT404" s="1"/>
     </row>
-    <row r="405" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:46">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -4263,7 +3921,7 @@
       <c r="AS405" s="1"/>
       <c r="AT405" s="1"/>
     </row>
-    <row r="406" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:46">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -4311,7 +3969,7 @@
       <c r="AS406" s="1"/>
       <c r="AT406" s="1"/>
     </row>
-    <row r="407" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:46">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -4359,7 +4017,7 @@
       <c r="AS407" s="1"/>
       <c r="AT407" s="1"/>
     </row>
-    <row r="408" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:46">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -4407,7 +4065,7 @@
       <c r="AS408" s="1"/>
       <c r="AT408" s="1"/>
     </row>
-    <row r="409" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:46">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -4455,7 +4113,7 @@
       <c r="AS409" s="1"/>
       <c r="AT409" s="1"/>
     </row>
-    <row r="410" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:46">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -4503,7 +4161,7 @@
       <c r="AS410" s="1"/>
       <c r="AT410" s="1"/>
     </row>
-    <row r="411" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:46">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -4551,7 +4209,7 @@
       <c r="AS411" s="1"/>
       <c r="AT411" s="1"/>
     </row>
-    <row r="412" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:46">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -4599,7 +4257,7 @@
       <c r="AS412" s="1"/>
       <c r="AT412" s="1"/>
     </row>
-    <row r="413" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:46">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -4647,7 +4305,7 @@
       <c r="AS413" s="1"/>
       <c r="AT413" s="1"/>
     </row>
-    <row r="414" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:46">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -4695,7 +4353,7 @@
       <c r="AS414" s="1"/>
       <c r="AT414" s="1"/>
     </row>
-    <row r="415" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:46">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -4743,7 +4401,7 @@
       <c r="AS415" s="1"/>
       <c r="AT415" s="1"/>
     </row>
-    <row r="416" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:46">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -4791,7 +4449,7 @@
       <c r="AS416" s="1"/>
       <c r="AT416" s="1"/>
     </row>
-    <row r="417" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:46">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -4839,7 +4497,7 @@
       <c r="AS417" s="1"/>
       <c r="AT417" s="1"/>
     </row>
-    <row r="418" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:46">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -4887,7 +4545,7 @@
       <c r="AS418" s="1"/>
       <c r="AT418" s="1"/>
     </row>
-    <row r="419" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:46">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -4935,7 +4593,7 @@
       <c r="AS419" s="1"/>
       <c r="AT419" s="1"/>
     </row>
-    <row r="420" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:46">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -4983,7 +4641,7 @@
       <c r="AS420" s="1"/>
       <c r="AT420" s="1"/>
     </row>
-    <row r="421" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:46">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -5031,7 +4689,7 @@
       <c r="AS421" s="1"/>
       <c r="AT421" s="1"/>
     </row>
-    <row r="422" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:46">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -5079,7 +4737,7 @@
       <c r="AS422" s="1"/>
       <c r="AT422" s="1"/>
     </row>
-    <row r="423" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:46">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -5127,7 +4785,7 @@
       <c r="AS423" s="1"/>
       <c r="AT423" s="1"/>
     </row>
-    <row r="424" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:46">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -5175,7 +4833,7 @@
       <c r="AS424" s="1"/>
       <c r="AT424" s="1"/>
     </row>
-    <row r="425" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:46">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -5223,7 +4881,7 @@
       <c r="AS425" s="1"/>
       <c r="AT425" s="1"/>
     </row>
-    <row r="426" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:46">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -5271,7 +4929,7 @@
       <c r="AS426" s="1"/>
       <c r="AT426" s="1"/>
     </row>
-    <row r="427" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:46">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -5319,7 +4977,7 @@
       <c r="AS427" s="1"/>
       <c r="AT427" s="1"/>
     </row>
-    <row r="428" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:46">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -5367,7 +5025,7 @@
       <c r="AS428" s="1"/>
       <c r="AT428" s="1"/>
     </row>
-    <row r="429" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:46">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -5415,7 +5073,7 @@
       <c r="AS429" s="1"/>
       <c r="AT429" s="1"/>
     </row>
-    <row r="430" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:46">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -5463,7 +5121,7 @@
       <c r="AS430" s="1"/>
       <c r="AT430" s="1"/>
     </row>
-    <row r="431" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:46">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -5511,7 +5169,7 @@
       <c r="AS431" s="1"/>
       <c r="AT431" s="1"/>
     </row>
-    <row r="432" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:46">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -5559,7 +5217,7 @@
       <c r="AS432" s="1"/>
       <c r="AT432" s="1"/>
     </row>
-    <row r="433" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:46">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -5607,7 +5265,7 @@
       <c r="AS433" s="1"/>
       <c r="AT433" s="1"/>
     </row>
-    <row r="434" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:46">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -5655,7 +5313,7 @@
       <c r="AS434" s="1"/>
       <c r="AT434" s="1"/>
     </row>
-    <row r="435" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:46">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -5703,7 +5361,7 @@
       <c r="AS435" s="1"/>
       <c r="AT435" s="1"/>
     </row>
-    <row r="436" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:46">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -5751,7 +5409,7 @@
       <c r="AS436" s="1"/>
       <c r="AT436" s="1"/>
     </row>
-    <row r="437" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:46">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -5799,7 +5457,7 @@
       <c r="AS437" s="1"/>
       <c r="AT437" s="1"/>
     </row>
-    <row r="438" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:46">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -5847,7 +5505,7 @@
       <c r="AS438" s="1"/>
       <c r="AT438" s="1"/>
     </row>
-    <row r="439" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:46">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -5895,7 +5553,7 @@
       <c r="AS439" s="1"/>
       <c r="AT439" s="1"/>
     </row>
-    <row r="440" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:46">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -5943,7 +5601,7 @@
       <c r="AS440" s="1"/>
       <c r="AT440" s="1"/>
     </row>
-    <row r="441" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:46">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -5991,7 +5649,7 @@
       <c r="AS441" s="1"/>
       <c r="AT441" s="1"/>
     </row>
-    <row r="442" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:46">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -6039,7 +5697,7 @@
       <c r="AS442" s="1"/>
       <c r="AT442" s="1"/>
     </row>
-    <row r="443" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:46">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -6087,7 +5745,7 @@
       <c r="AS443" s="1"/>
       <c r="AT443" s="1"/>
     </row>
-    <row r="444" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:46">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -6135,7 +5793,7 @@
       <c r="AS444" s="1"/>
       <c r="AT444" s="1"/>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:46">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -6183,7 +5841,7 @@
       <c r="AS445" s="1"/>
       <c r="AT445" s="1"/>
     </row>
-    <row r="446" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:46">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -6231,7 +5889,7 @@
       <c r="AS446" s="1"/>
       <c r="AT446" s="1"/>
     </row>
-    <row r="447" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:46">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -6279,7 +5937,7 @@
       <c r="AS447" s="1"/>
       <c r="AT447" s="1"/>
     </row>
-    <row r="448" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:46">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -6327,7 +5985,7 @@
       <c r="AS448" s="1"/>
       <c r="AT448" s="1"/>
     </row>
-    <row r="449" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:46">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -6375,7 +6033,7 @@
       <c r="AS449" s="1"/>
       <c r="AT449" s="1"/>
     </row>
-    <row r="450" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:46">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -6423,7 +6081,7 @@
       <c r="AS450" s="1"/>
       <c r="AT450" s="1"/>
     </row>
-    <row r="451" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:46">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -6471,7 +6129,7 @@
       <c r="AS451" s="1"/>
       <c r="AT451" s="1"/>
     </row>
-    <row r="452" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:46">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -6519,7 +6177,7 @@
       <c r="AS452" s="1"/>
       <c r="AT452" s="1"/>
     </row>
-    <row r="453" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:46">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -6567,7 +6225,7 @@
       <c r="AS453" s="1"/>
       <c r="AT453" s="1"/>
     </row>
-    <row r="454" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:46">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -6615,7 +6273,7 @@
       <c r="AS454" s="1"/>
       <c r="AT454" s="1"/>
     </row>
-    <row r="455" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:46">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -6663,7 +6321,7 @@
       <c r="AS455" s="1"/>
       <c r="AT455" s="1"/>
     </row>
-    <row r="456" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:46">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -6711,7 +6369,7 @@
       <c r="AS456" s="1"/>
       <c r="AT456" s="1"/>
     </row>
-    <row r="457" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:46">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -6759,7 +6417,7 @@
       <c r="AS457" s="1"/>
       <c r="AT457" s="1"/>
     </row>
-    <row r="458" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:46">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -6807,7 +6465,7 @@
       <c r="AS458" s="1"/>
       <c r="AT458" s="1"/>
     </row>
-    <row r="459" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:46">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -6855,7 +6513,7 @@
       <c r="AS459" s="1"/>
       <c r="AT459" s="1"/>
     </row>
-    <row r="460" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:46">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -6903,7 +6561,7 @@
       <c r="AS460" s="1"/>
       <c r="AT460" s="1"/>
     </row>
-    <row r="461" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:46">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -6951,7 +6609,7 @@
       <c r="AS461" s="1"/>
       <c r="AT461" s="1"/>
     </row>
-    <row r="462" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:46">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -6999,7 +6657,7 @@
       <c r="AS462" s="1"/>
       <c r="AT462" s="1"/>
     </row>
-    <row r="463" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:46">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -7047,7 +6705,7 @@
       <c r="AS463" s="1"/>
       <c r="AT463" s="1"/>
     </row>
-    <row r="464" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:46">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -7095,7 +6753,7 @@
       <c r="AS464" s="1"/>
       <c r="AT464" s="1"/>
     </row>
-    <row r="465" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:46">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -7143,7 +6801,7 @@
       <c r="AS465" s="1"/>
       <c r="AT465" s="1"/>
     </row>
-    <row r="466" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:46">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -7191,7 +6849,7 @@
       <c r="AS466" s="1"/>
       <c r="AT466" s="1"/>
     </row>
-    <row r="467" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:46">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -7239,7 +6897,7 @@
       <c r="AS467" s="1"/>
       <c r="AT467" s="1"/>
     </row>
-    <row r="468" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:46">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -7287,7 +6945,7 @@
       <c r="AS468" s="1"/>
       <c r="AT468" s="1"/>
     </row>
-    <row r="469" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:46">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7335,7 +6993,7 @@
       <c r="AS469" s="1"/>
       <c r="AT469" s="1"/>
     </row>
-    <row r="470" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:46">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -7383,7 +7041,7 @@
       <c r="AS470" s="1"/>
       <c r="AT470" s="1"/>
     </row>
-    <row r="471" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:46">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -7431,7 +7089,7 @@
       <c r="AS471" s="1"/>
       <c r="AT471" s="1"/>
     </row>
-    <row r="472" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:46">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -7479,7 +7137,7 @@
       <c r="AS472" s="1"/>
       <c r="AT472" s="1"/>
     </row>
-    <row r="473" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:46">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -7527,7 +7185,7 @@
       <c r="AS473" s="1"/>
       <c r="AT473" s="1"/>
     </row>
-    <row r="474" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:46">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -7575,7 +7233,7 @@
       <c r="AS474" s="1"/>
       <c r="AT474" s="1"/>
     </row>
-    <row r="475" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:46">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -7623,7 +7281,7 @@
       <c r="AS475" s="1"/>
       <c r="AT475" s="1"/>
     </row>
-    <row r="476" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:46">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -7671,7 +7329,7 @@
       <c r="AS476" s="1"/>
       <c r="AT476" s="1"/>
     </row>
-    <row r="477" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:46">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -7719,7 +7377,7 @@
       <c r="AS477" s="1"/>
       <c r="AT477" s="1"/>
     </row>
-    <row r="478" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:46">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -7767,7 +7425,7 @@
       <c r="AS478" s="1"/>
       <c r="AT478" s="1"/>
     </row>
-    <row r="479" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:46">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -7815,7 +7473,7 @@
       <c r="AS479" s="1"/>
       <c r="AT479" s="1"/>
     </row>
-    <row r="480" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:46">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -7863,7 +7521,7 @@
       <c r="AS480" s="1"/>
       <c r="AT480" s="1"/>
     </row>
-    <row r="481" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:46">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7911,7 +7569,7 @@
       <c r="AS481" s="1"/>
       <c r="AT481" s="1"/>
     </row>
-    <row r="482" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:46">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -7959,7 +7617,7 @@
       <c r="AS482" s="1"/>
       <c r="AT482" s="1"/>
     </row>
-    <row r="483" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:46">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -8007,7 +7665,7 @@
       <c r="AS483" s="1"/>
       <c r="AT483" s="1"/>
     </row>
-    <row r="484" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:46">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -8055,7 +7713,7 @@
       <c r="AS484" s="1"/>
       <c r="AT484" s="1"/>
     </row>
-    <row r="485" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:46">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -8103,7 +7761,7 @@
       <c r="AS485" s="1"/>
       <c r="AT485" s="1"/>
     </row>
-    <row r="486" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:46">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -8151,7 +7809,7 @@
       <c r="AS486" s="1"/>
       <c r="AT486" s="1"/>
     </row>
-    <row r="487" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:46">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -8199,7 +7857,7 @@
       <c r="AS487" s="1"/>
       <c r="AT487" s="1"/>
     </row>
-    <row r="488" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:46">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -8247,7 +7905,7 @@
       <c r="AS488" s="1"/>
       <c r="AT488" s="1"/>
     </row>
-    <row r="489" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:46">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -8295,7 +7953,7 @@
       <c r="AS489" s="1"/>
       <c r="AT489" s="1"/>
     </row>
-    <row r="490" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:46">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -8343,7 +8001,7 @@
       <c r="AS490" s="1"/>
       <c r="AT490" s="1"/>
     </row>
-    <row r="491" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:46">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -8391,7 +8049,7 @@
       <c r="AS491" s="1"/>
       <c r="AT491" s="1"/>
     </row>
-    <row r="492" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:46">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -8439,7 +8097,7 @@
       <c r="AS492" s="1"/>
       <c r="AT492" s="1"/>
     </row>
-    <row r="493" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:46">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -8487,7 +8145,7 @@
       <c r="AS493" s="1"/>
       <c r="AT493" s="1"/>
     </row>
-    <row r="494" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:46">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -8535,7 +8193,7 @@
       <c r="AS494" s="1"/>
       <c r="AT494" s="1"/>
     </row>
-    <row r="495" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:46">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -8583,7 +8241,7 @@
       <c r="AS495" s="1"/>
       <c r="AT495" s="1"/>
     </row>
-    <row r="496" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:46">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -8631,7 +8289,7 @@
       <c r="AS496" s="1"/>
       <c r="AT496" s="1"/>
     </row>
-    <row r="497" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:46">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -8679,7 +8337,7 @@
       <c r="AS497" s="1"/>
       <c r="AT497" s="1"/>
     </row>
-    <row r="498" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:46">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -8727,7 +8385,7 @@
       <c r="AS498" s="1"/>
       <c r="AT498" s="1"/>
     </row>
-    <row r="499" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:46">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -8775,7 +8433,7 @@
       <c r="AS499" s="1"/>
       <c r="AT499" s="1"/>
     </row>
-    <row r="500" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:46">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -8823,7 +8481,7 @@
       <c r="AS500" s="1"/>
       <c r="AT500" s="1"/>
     </row>
-    <row r="501" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:46">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -8871,7 +8529,7 @@
       <c r="AS501" s="1"/>
       <c r="AT501" s="1"/>
     </row>
-    <row r="502" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:46">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -8919,7 +8577,7 @@
       <c r="AS502" s="1"/>
       <c r="AT502" s="1"/>
     </row>
-    <row r="503" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:46">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -8967,7 +8625,7 @@
       <c r="AS503" s="1"/>
       <c r="AT503" s="1"/>
     </row>
-    <row r="504" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:46">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -9015,7 +8673,7 @@
       <c r="AS504" s="1"/>
       <c r="AT504" s="1"/>
     </row>
-    <row r="505" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:46">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -9063,7 +8721,7 @@
       <c r="AS505" s="1"/>
       <c r="AT505" s="1"/>
     </row>
-    <row r="506" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:46">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -9111,7 +8769,7 @@
       <c r="AS506" s="1"/>
       <c r="AT506" s="1"/>
     </row>
-    <row r="507" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:46">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -9159,7 +8817,7 @@
       <c r="AS507" s="1"/>
       <c r="AT507" s="1"/>
     </row>
-    <row r="508" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:46">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -9207,7 +8865,7 @@
       <c r="AS508" s="1"/>
       <c r="AT508" s="1"/>
     </row>
-    <row r="509" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:46">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -9255,7 +8913,7 @@
       <c r="AS509" s="1"/>
       <c r="AT509" s="1"/>
     </row>
-    <row r="510" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:46">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -9303,7 +8961,7 @@
       <c r="AS510" s="1"/>
       <c r="AT510" s="1"/>
     </row>
-    <row r="511" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:46">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -9351,7 +9009,7 @@
       <c r="AS511" s="1"/>
       <c r="AT511" s="1"/>
     </row>
-    <row r="512" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:46">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -9399,7 +9057,7 @@
       <c r="AS512" s="1"/>
       <c r="AT512" s="1"/>
     </row>
-    <row r="513" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:46">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -9447,7 +9105,7 @@
       <c r="AS513" s="1"/>
       <c r="AT513" s="1"/>
     </row>
-    <row r="514" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:46">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -9495,7 +9153,7 @@
       <c r="AS514" s="1"/>
       <c r="AT514" s="1"/>
     </row>
-    <row r="515" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:46">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -9543,7 +9201,7 @@
       <c r="AS515" s="1"/>
       <c r="AT515" s="1"/>
     </row>
-    <row r="516" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:46">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -9591,7 +9249,7 @@
       <c r="AS516" s="1"/>
       <c r="AT516" s="1"/>
     </row>
-    <row r="517" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:46">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -9639,7 +9297,7 @@
       <c r="AS517" s="1"/>
       <c r="AT517" s="1"/>
     </row>
-    <row r="518" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:46">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -9687,7 +9345,7 @@
       <c r="AS518" s="1"/>
       <c r="AT518" s="1"/>
     </row>
-    <row r="519" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:46">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -9735,7 +9393,7 @@
       <c r="AS519" s="1"/>
       <c r="AT519" s="1"/>
     </row>
-    <row r="520" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:46">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -9783,7 +9441,7 @@
       <c r="AS520" s="1"/>
       <c r="AT520" s="1"/>
     </row>
-    <row r="521" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:46">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -9831,7 +9489,7 @@
       <c r="AS521" s="1"/>
       <c r="AT521" s="1"/>
     </row>
-    <row r="522" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:46">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -9879,7 +9537,7 @@
       <c r="AS522" s="1"/>
       <c r="AT522" s="1"/>
     </row>
-    <row r="523" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:46">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -9927,7 +9585,7 @@
       <c r="AS523" s="1"/>
       <c r="AT523" s="1"/>
     </row>
-    <row r="524" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:46">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -9975,7 +9633,7 @@
       <c r="AS524" s="1"/>
       <c r="AT524" s="1"/>
     </row>
-    <row r="525" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:46">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -10023,7 +9681,7 @@
       <c r="AS525" s="1"/>
       <c r="AT525" s="1"/>
     </row>
-    <row r="526" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:46">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -10071,7 +9729,7 @@
       <c r="AS526" s="1"/>
       <c r="AT526" s="1"/>
     </row>
-    <row r="527" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:46">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -10119,7 +9777,7 @@
       <c r="AS527" s="1"/>
       <c r="AT527" s="1"/>
     </row>
-    <row r="528" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:46">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -10167,7 +9825,7 @@
       <c r="AS528" s="1"/>
       <c r="AT528" s="1"/>
     </row>
-    <row r="529" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:46">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -10215,7 +9873,7 @@
       <c r="AS529" s="1"/>
       <c r="AT529" s="1"/>
     </row>
-    <row r="530" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:46">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -10263,7 +9921,7 @@
       <c r="AS530" s="1"/>
       <c r="AT530" s="1"/>
     </row>
-    <row r="531" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:46">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -10311,7 +9969,7 @@
       <c r="AS531" s="1"/>
       <c r="AT531" s="1"/>
     </row>
-    <row r="532" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:46">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -10359,7 +10017,7 @@
       <c r="AS532" s="1"/>
       <c r="AT532" s="1"/>
     </row>
-    <row r="533" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:46">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -10407,7 +10065,7 @@
       <c r="AS533" s="1"/>
       <c r="AT533" s="1"/>
     </row>
-    <row r="534" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:46">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -10455,7 +10113,7 @@
       <c r="AS534" s="1"/>
       <c r="AT534" s="1"/>
     </row>
-    <row r="535" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:46">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -10503,7 +10161,7 @@
       <c r="AS535" s="1"/>
       <c r="AT535" s="1"/>
     </row>
-    <row r="536" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:46">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -10551,7 +10209,7 @@
       <c r="AS536" s="1"/>
       <c r="AT536" s="1"/>
     </row>
-    <row r="537" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:46">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -10599,7 +10257,7 @@
       <c r="AS537" s="1"/>
       <c r="AT537" s="1"/>
     </row>
-    <row r="538" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:46">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -10647,7 +10305,7 @@
       <c r="AS538" s="1"/>
       <c r="AT538" s="1"/>
     </row>
-    <row r="539" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:46">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -10695,7 +10353,7 @@
       <c r="AS539" s="1"/>
       <c r="AT539" s="1"/>
     </row>
-    <row r="540" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:46">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -10743,7 +10401,7 @@
       <c r="AS540" s="1"/>
       <c r="AT540" s="1"/>
     </row>
-    <row r="541" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:46">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -10791,7 +10449,7 @@
       <c r="AS541" s="1"/>
       <c r="AT541" s="1"/>
     </row>
-    <row r="542" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:46">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -10839,7 +10497,7 @@
       <c r="AS542" s="1"/>
       <c r="AT542" s="1"/>
     </row>
-    <row r="543" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:46">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -10887,7 +10545,7 @@
       <c r="AS543" s="1"/>
       <c r="AT543" s="1"/>
     </row>
-    <row r="544" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:46">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -10935,7 +10593,7 @@
       <c r="AS544" s="1"/>
       <c r="AT544" s="1"/>
     </row>
-    <row r="545" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:46">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -10983,7 +10641,7 @@
       <c r="AS545" s="1"/>
       <c r="AT545" s="1"/>
     </row>
-    <row r="546" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:46">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -11031,7 +10689,7 @@
       <c r="AS546" s="1"/>
       <c r="AT546" s="1"/>
     </row>
-    <row r="547" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:46">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -11079,7 +10737,7 @@
       <c r="AS547" s="1"/>
       <c r="AT547" s="1"/>
     </row>
-    <row r="548" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:46">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -11127,7 +10785,7 @@
       <c r="AS548" s="1"/>
       <c r="AT548" s="1"/>
     </row>
-    <row r="549" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:46">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -11175,7 +10833,7 @@
       <c r="AS549" s="1"/>
       <c r="AT549" s="1"/>
     </row>
-    <row r="550" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:46">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -11223,7 +10881,7 @@
       <c r="AS550" s="1"/>
       <c r="AT550" s="1"/>
     </row>
-    <row r="551" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:46">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -11271,7 +10929,7 @@
       <c r="AS551" s="1"/>
       <c r="AT551" s="1"/>
     </row>
-    <row r="552" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:46">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -11319,7 +10977,7 @@
       <c r="AS552" s="1"/>
       <c r="AT552" s="1"/>
     </row>
-    <row r="553" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:46">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -11367,7 +11025,7 @@
       <c r="AS553" s="1"/>
       <c r="AT553" s="1"/>
     </row>
-    <row r="554" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:46">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -11415,7 +11073,7 @@
       <c r="AS554" s="1"/>
       <c r="AT554" s="1"/>
     </row>
-    <row r="555" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:46">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -11463,7 +11121,7 @@
       <c r="AS555" s="1"/>
       <c r="AT555" s="1"/>
     </row>
-    <row r="556" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:46">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -11511,7 +11169,7 @@
       <c r="AS556" s="1"/>
       <c r="AT556" s="1"/>
     </row>
-    <row r="557" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:46">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -11559,7 +11217,7 @@
       <c r="AS557" s="1"/>
       <c r="AT557" s="1"/>
     </row>
-    <row r="558" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:46">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -11607,7 +11265,7 @@
       <c r="AS558" s="1"/>
       <c r="AT558" s="1"/>
     </row>
-    <row r="559" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:46">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -11655,7 +11313,7 @@
       <c r="AS559" s="1"/>
       <c r="AT559" s="1"/>
     </row>
-    <row r="560" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:46">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -11703,7 +11361,7 @@
       <c r="AS560" s="1"/>
       <c r="AT560" s="1"/>
     </row>
-    <row r="561" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:46">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -11751,7 +11409,7 @@
       <c r="AS561" s="1"/>
       <c r="AT561" s="1"/>
     </row>
-    <row r="562" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:46">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -11799,7 +11457,7 @@
       <c r="AS562" s="1"/>
       <c r="AT562" s="1"/>
     </row>
-    <row r="563" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:46">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -11847,7 +11505,7 @@
       <c r="AS563" s="1"/>
       <c r="AT563" s="1"/>
     </row>
-    <row r="564" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:46">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -11895,7 +11553,7 @@
       <c r="AS564" s="1"/>
       <c r="AT564" s="1"/>
     </row>
-    <row r="565" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:46">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -11943,7 +11601,7 @@
       <c r="AS565" s="1"/>
       <c r="AT565" s="1"/>
     </row>
-    <row r="566" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:46">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -11991,7 +11649,7 @@
       <c r="AS566" s="1"/>
       <c r="AT566" s="1"/>
     </row>
-    <row r="567" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:46">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -12039,7 +11697,7 @@
       <c r="AS567" s="1"/>
       <c r="AT567" s="1"/>
     </row>
-    <row r="568" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:46">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -12087,7 +11745,7 @@
       <c r="AS568" s="1"/>
       <c r="AT568" s="1"/>
     </row>
-    <row r="569" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:46">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -12135,7 +11793,7 @@
       <c r="AS569" s="1"/>
       <c r="AT569" s="1"/>
     </row>
-    <row r="570" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:46">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -12183,7 +11841,7 @@
       <c r="AS570" s="1"/>
       <c r="AT570" s="1"/>
     </row>
-    <row r="571" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:46">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -12231,7 +11889,7 @@
       <c r="AS571" s="1"/>
       <c r="AT571" s="1"/>
     </row>
-    <row r="572" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:46">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -12279,7 +11937,7 @@
       <c r="AS572" s="1"/>
       <c r="AT572" s="1"/>
     </row>
-    <row r="573" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:46">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -12327,7 +11985,7 @@
       <c r="AS573" s="1"/>
       <c r="AT573" s="1"/>
     </row>
-    <row r="574" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:46">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -12375,7 +12033,7 @@
       <c r="AS574" s="1"/>
       <c r="AT574" s="1"/>
     </row>
-    <row r="575" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:46">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -12423,7 +12081,7 @@
       <c r="AS575" s="1"/>
       <c r="AT575" s="1"/>
     </row>
-    <row r="576" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:46">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -12471,7 +12129,7 @@
       <c r="AS576" s="1"/>
       <c r="AT576" s="1"/>
     </row>
-    <row r="577" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:46">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -12519,7 +12177,7 @@
       <c r="AS577" s="1"/>
       <c r="AT577" s="1"/>
     </row>
-    <row r="578" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:46">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -12567,7 +12225,7 @@
       <c r="AS578" s="1"/>
       <c r="AT578" s="1"/>
     </row>
-    <row r="579" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:46">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -12615,7 +12273,7 @@
       <c r="AS579" s="1"/>
       <c r="AT579" s="1"/>
     </row>
-    <row r="580" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:46">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -12663,7 +12321,7 @@
       <c r="AS580" s="1"/>
       <c r="AT580" s="1"/>
     </row>
-    <row r="581" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:46">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -12711,7 +12369,7 @@
       <c r="AS581" s="1"/>
       <c r="AT581" s="1"/>
     </row>
-    <row r="582" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:46">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -12759,7 +12417,7 @@
       <c r="AS582" s="1"/>
       <c r="AT582" s="1"/>
     </row>
-    <row r="583" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:46">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -12807,7 +12465,7 @@
       <c r="AS583" s="1"/>
       <c r="AT583" s="1"/>
     </row>
-    <row r="584" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:46">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -12855,7 +12513,7 @@
       <c r="AS584" s="1"/>
       <c r="AT584" s="1"/>
     </row>
-    <row r="585" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:46">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -12903,7 +12561,7 @@
       <c r="AS585" s="1"/>
       <c r="AT585" s="1"/>
     </row>
-    <row r="586" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:46">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -12951,7 +12609,7 @@
       <c r="AS586" s="1"/>
       <c r="AT586" s="1"/>
     </row>
-    <row r="587" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:46">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -12999,7 +12657,7 @@
       <c r="AS587" s="1"/>
       <c r="AT587" s="1"/>
     </row>
-    <row r="588" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:46">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -13047,7 +12705,7 @@
       <c r="AS588" s="1"/>
       <c r="AT588" s="1"/>
     </row>
-    <row r="589" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:46">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -13095,7 +12753,7 @@
       <c r="AS589" s="1"/>
       <c r="AT589" s="1"/>
     </row>
-    <row r="590" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:46">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -13143,7 +12801,7 @@
       <c r="AS590" s="1"/>
       <c r="AT590" s="1"/>
     </row>
-    <row r="591" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:46">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -13191,7 +12849,7 @@
       <c r="AS591" s="1"/>
       <c r="AT591" s="1"/>
     </row>
-    <row r="592" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:46">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -13239,7 +12897,7 @@
       <c r="AS592" s="1"/>
       <c r="AT592" s="1"/>
     </row>
-    <row r="593" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:46">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -13287,7 +12945,7 @@
       <c r="AS593" s="1"/>
       <c r="AT593" s="1"/>
     </row>
-    <row r="594" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:46">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -13335,7 +12993,7 @@
       <c r="AS594" s="1"/>
       <c r="AT594" s="1"/>
     </row>
-    <row r="595" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:46">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -13383,7 +13041,7 @@
       <c r="AS595" s="1"/>
       <c r="AT595" s="1"/>
     </row>
-    <row r="596" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:46">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -13431,7 +13089,7 @@
       <c r="AS596" s="1"/>
       <c r="AT596" s="1"/>
     </row>
-    <row r="597" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:46">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -13479,7 +13137,7 @@
       <c r="AS597" s="1"/>
       <c r="AT597" s="1"/>
     </row>
-    <row r="598" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:46">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -13527,7 +13185,7 @@
       <c r="AS598" s="1"/>
       <c r="AT598" s="1"/>
     </row>
-    <row r="599" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:46">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -13575,7 +13233,7 @@
       <c r="AS599" s="1"/>
       <c r="AT599" s="1"/>
     </row>
-    <row r="600" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:46">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -13623,7 +13281,7 @@
       <c r="AS600" s="1"/>
       <c r="AT600" s="1"/>
     </row>
-    <row r="601" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:46">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -13671,7 +13329,7 @@
       <c r="AS601" s="1"/>
       <c r="AT601" s="1"/>
     </row>
-    <row r="602" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:46">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -13719,7 +13377,7 @@
       <c r="AS602" s="1"/>
       <c r="AT602" s="1"/>
     </row>
-    <row r="603" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:46">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -13767,7 +13425,7 @@
       <c r="AS603" s="1"/>
       <c r="AT603" s="1"/>
     </row>
-    <row r="604" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:46">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -13815,6 +13473,102 @@
       <c r="AS604" s="1"/>
       <c r="AT604" s="1"/>
     </row>
+    <row r="605" spans="1:46">
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
+      <c r="D605" s="1"/>
+      <c r="E605" s="1"/>
+      <c r="F605" s="1"/>
+      <c r="G605" s="1"/>
+      <c r="H605" s="1"/>
+      <c r="I605" s="1"/>
+      <c r="J605" s="1"/>
+      <c r="K605" s="1"/>
+      <c r="L605" s="1"/>
+      <c r="M605" s="1"/>
+      <c r="N605" s="1"/>
+      <c r="O605" s="1"/>
+      <c r="P605" s="1"/>
+      <c r="Q605" s="1"/>
+      <c r="R605" s="1"/>
+      <c r="S605" s="1"/>
+      <c r="T605" s="1"/>
+      <c r="U605" s="1"/>
+      <c r="V605" s="1"/>
+      <c r="W605" s="1"/>
+      <c r="X605" s="1"/>
+      <c r="Y605" s="1"/>
+      <c r="Z605" s="1"/>
+      <c r="AA605" s="1"/>
+      <c r="AB605" s="1"/>
+      <c r="AC605" s="1"/>
+      <c r="AD605" s="1"/>
+      <c r="AE605" s="1"/>
+      <c r="AF605" s="1"/>
+      <c r="AG605" s="1"/>
+      <c r="AH605" s="1"/>
+      <c r="AI605" s="1"/>
+      <c r="AJ605" s="1"/>
+      <c r="AK605" s="1"/>
+      <c r="AL605" s="1"/>
+      <c r="AM605" s="1"/>
+      <c r="AN605" s="1"/>
+      <c r="AO605" s="1"/>
+      <c r="AP605" s="1"/>
+      <c r="AQ605" s="1"/>
+      <c r="AR605" s="1"/>
+      <c r="AS605" s="1"/>
+      <c r="AT605" s="1"/>
+    </row>
+    <row r="606" spans="1:46">
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
+      <c r="D606" s="1"/>
+      <c r="E606" s="1"/>
+      <c r="F606" s="1"/>
+      <c r="G606" s="1"/>
+      <c r="H606" s="1"/>
+      <c r="I606" s="1"/>
+      <c r="J606" s="1"/>
+      <c r="K606" s="1"/>
+      <c r="L606" s="1"/>
+      <c r="M606" s="1"/>
+      <c r="N606" s="1"/>
+      <c r="O606" s="1"/>
+      <c r="P606" s="1"/>
+      <c r="Q606" s="1"/>
+      <c r="R606" s="1"/>
+      <c r="S606" s="1"/>
+      <c r="T606" s="1"/>
+      <c r="U606" s="1"/>
+      <c r="V606" s="1"/>
+      <c r="W606" s="1"/>
+      <c r="X606" s="1"/>
+      <c r="Y606" s="1"/>
+      <c r="Z606" s="1"/>
+      <c r="AA606" s="1"/>
+      <c r="AB606" s="1"/>
+      <c r="AC606" s="1"/>
+      <c r="AD606" s="1"/>
+      <c r="AE606" s="1"/>
+      <c r="AF606" s="1"/>
+      <c r="AG606" s="1"/>
+      <c r="AH606" s="1"/>
+      <c r="AI606" s="1"/>
+      <c r="AJ606" s="1"/>
+      <c r="AK606" s="1"/>
+      <c r="AL606" s="1"/>
+      <c r="AM606" s="1"/>
+      <c r="AN606" s="1"/>
+      <c r="AO606" s="1"/>
+      <c r="AP606" s="1"/>
+      <c r="AQ606" s="1"/>
+      <c r="AR606" s="1"/>
+      <c r="AS606" s="1"/>
+      <c r="AT606" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="AG1:AK1"/>
@@ -13840,24 +13594,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/common/template/document/tabel_teachers.xlsx
+++ b/common/template/document/tabel_teachers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD833BCE-FCE2-2040-8BDE-9E9B991AE52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E3B4A-4A69-5A49-A5D9-18FEFD1F74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="25600" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>явок</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>отчество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     учета использования рабочего времени</t>
   </si>
   <si>
     <t xml:space="preserve">  по  ОКПО</t>
@@ -368,12 +365,6 @@
     <t>52603682</t>
   </si>
   <si>
-    <t>[doc.summ_qty_15]</t>
-  </si>
-  <si>
-    <t>[doc.summ_qty_31]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Исполнитель </t>
   </si>
   <si>
@@ -393,6 +384,12 @@
   </si>
   <si>
     <t>[a.days.time_total_15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     учета использования рабочего времени ([doc.subject_type_name])</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
   </si>
 </sst>
 </file>
@@ -860,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -937,6 +934,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,17 +1001,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1415,15 +1417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT606"/>
+  <dimension ref="A1:AT605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
@@ -1434,204 +1436,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="H2" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="H2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:46" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="H3" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
+      <c r="E3" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
       <c r="AI3" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ3" s="29"/>
       <c r="AK3" s="30"/>
     </row>
     <row r="4" spans="1:46" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="AE4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="57"/>
+        <v>19</v>
+      </c>
+      <c r="AI4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="61"/>
     </row>
     <row r="5" spans="1:46" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="AF5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="67"/>
+    </row>
+    <row r="6" spans="1:46" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="D6" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="AF5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="63"/>
-    </row>
-    <row r="6" spans="1:46" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="D6" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
       <c r="AF6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK6" s="9"/>
     </row>
     <row r="7" spans="1:46" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="16"/>
     </row>
     <row r="8" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="D8" s="53">
+      <c r="A8" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="D8" s="57">
         <v>0</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
       <c r="AC8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="15"/>
@@ -1640,10 +1649,10 @@
     <row r="9" spans="1:46" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="G9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" s="17"/>
       <c r="AI9" s="10"/>
@@ -1691,10 +1700,10 @@
     </row>
     <row r="11" spans="1:46" ht="19.5" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="52"/>
+      <c r="B11" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="56"/>
       <c r="D11" s="18"/>
       <c r="E11" s="31"/>
       <c r="F11" s="22"/>
@@ -1745,11 +1754,11 @@
       <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -1768,7 +1777,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="4"/>
@@ -1787,7 +1796,7 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -1803,8 +1812,8 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1822,7 +1831,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -1841,7 +1850,7 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
@@ -1855,8 +1864,8 @@
     </row>
     <row r="14" spans="1:46" ht="9.75" customHeight="1">
       <c r="A14" s="20"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>15</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U14" s="3">
         <v>16</v>
@@ -1957,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="AK14" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -1971,10 +1980,10 @@
     </row>
     <row r="15" spans="1:46" ht="7.5" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2025,8 +2034,8 @@
     </row>
     <row r="16" spans="1:46" ht="9" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2044,7 +2053,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2063,7 +2072,7 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2077,8 +2086,8 @@
     </row>
     <row r="17" spans="1:46" ht="9.75" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2096,7 +2105,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2115,7 +2124,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2251,380 +2260,455 @@
     </row>
     <row r="19" spans="1:46" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="W19" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="X19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z19" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF19" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ19" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK19" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="U19" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="V19" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="W19" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="X19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z19" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB19" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC19" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD19" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE19" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF19" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG19" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH19" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK19" s="25" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="X20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC20" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" s="70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:46" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="U20" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="W20" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB20" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC20" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE20" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF20" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG20" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH20" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI20" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ20" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK20" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" s="67" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="T21" s="70" t="s">
+    <row r="21" spans="1:46" s="68" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" ht="15" customHeight="1" thickBot="1"/>
+    <row r="23" spans="1:46" ht="15" customHeight="1">
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="34"/>
+    </row>
+    <row r="24" spans="1:46" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="Q24" s="35"/>
+      <c r="T24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="37"/>
+    </row>
+    <row r="25" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
+      <c r="E25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="35"/>
+      <c r="AK25" s="37"/>
+    </row>
+    <row r="26" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="U26" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y26" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AK21" s="67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" s="67" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="T22" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK22" s="70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" ht="15" customHeight="1" thickBot="1"/>
-    <row r="24" spans="1:46" ht="15" customHeight="1">
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="34"/>
-    </row>
-    <row r="25" spans="1:46" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="E25" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="Q25" s="35"/>
-      <c r="T25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK25" s="37"/>
-    </row>
-    <row r="26" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
-      <c r="E26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="35"/>
+      <c r="AC26" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="E27" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+    <row r="27" spans="1:46" s="26" customFormat="1" ht="12.75" customHeight="1">
+      <c r="E27" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="Q27" s="35"/>
-      <c r="R27" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="U27" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y27" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC27" s="68" t="s">
-        <v>118</v>
+      <c r="S27" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="1:46" s="26" customFormat="1" ht="12.75" customHeight="1">
-      <c r="E28" s="26" t="s">
-        <v>33</v>
-      </c>
+    <row r="28" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
       <c r="Q28" s="35"/>
-      <c r="S28" s="26" t="s">
-        <v>7</v>
-      </c>
       <c r="AK28" s="37"/>
     </row>
     <row r="29" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
       <c r="Q29" s="35"/>
+      <c r="R29" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1">
-      <c r="Q30" s="35"/>
-      <c r="R30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK30" s="37"/>
-    </row>
-    <row r="31" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="40"/>
-    </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:46" s="26" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="40"/>
+    </row>
+    <row r="31" spans="1:46" ht="14.25" customHeight="1"/>
+    <row r="378" spans="1:46">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="T378" s="1"/>
+      <c r="U378" s="1"/>
+      <c r="V378" s="1"/>
+      <c r="W378" s="1"/>
+      <c r="X378" s="1"/>
+      <c r="Y378" s="1"/>
+      <c r="Z378" s="1"/>
+      <c r="AA378" s="1"/>
+      <c r="AB378" s="1"/>
+      <c r="AC378" s="1"/>
+      <c r="AD378" s="1"/>
+      <c r="AE378" s="1"/>
+      <c r="AF378" s="1"/>
+      <c r="AG378" s="1"/>
+      <c r="AH378" s="1"/>
+      <c r="AI378" s="1"/>
+      <c r="AJ378" s="1"/>
+      <c r="AK378" s="1"/>
+      <c r="AL378" s="1"/>
+      <c r="AM378" s="1"/>
+      <c r="AN378" s="1"/>
+      <c r="AO378" s="1"/>
+      <c r="AP378" s="1"/>
+      <c r="AQ378" s="1"/>
+      <c r="AR378" s="1"/>
+      <c r="AS378" s="1"/>
+      <c r="AT378" s="1"/>
+    </row>
     <row r="379" spans="1:46">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
@@ -13521,62 +13605,14 @@
       <c r="AS605" s="1"/>
       <c r="AT605" s="1"/>
     </row>
-    <row r="606" spans="1:46">
-      <c r="A606" s="1"/>
-      <c r="B606" s="1"/>
-      <c r="C606" s="1"/>
-      <c r="D606" s="1"/>
-      <c r="E606" s="1"/>
-      <c r="F606" s="1"/>
-      <c r="G606" s="1"/>
-      <c r="H606" s="1"/>
-      <c r="I606" s="1"/>
-      <c r="J606" s="1"/>
-      <c r="K606" s="1"/>
-      <c r="L606" s="1"/>
-      <c r="M606" s="1"/>
-      <c r="N606" s="1"/>
-      <c r="O606" s="1"/>
-      <c r="P606" s="1"/>
-      <c r="Q606" s="1"/>
-      <c r="R606" s="1"/>
-      <c r="S606" s="1"/>
-      <c r="T606" s="1"/>
-      <c r="U606" s="1"/>
-      <c r="V606" s="1"/>
-      <c r="W606" s="1"/>
-      <c r="X606" s="1"/>
-      <c r="Y606" s="1"/>
-      <c r="Z606" s="1"/>
-      <c r="AA606" s="1"/>
-      <c r="AB606" s="1"/>
-      <c r="AC606" s="1"/>
-      <c r="AD606" s="1"/>
-      <c r="AE606" s="1"/>
-      <c r="AF606" s="1"/>
-      <c r="AG606" s="1"/>
-      <c r="AH606" s="1"/>
-      <c r="AI606" s="1"/>
-      <c r="AJ606" s="1"/>
-      <c r="AK606" s="1"/>
-      <c r="AL606" s="1"/>
-      <c r="AM606" s="1"/>
-      <c r="AN606" s="1"/>
-      <c r="AO606" s="1"/>
-      <c r="AP606" s="1"/>
-      <c r="AQ606" s="1"/>
-      <c r="AR606" s="1"/>
-      <c r="AS606" s="1"/>
-      <c r="AT606" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="H3:U3"/>
     <mergeCell ref="H2:U2"/>
     <mergeCell ref="D6:AB6"/>
     <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="E3:Y3"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D7:AB7"/>
